--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_22_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_22_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_3</t>
+          <t>model_22_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.972980841664085</v>
+        <v>0.9982465272690898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7884919855958656</v>
+        <v>0.7906012693590219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9369021256434426</v>
+        <v>0.9977610970704989</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.832168387677598</v>
+        <v>0.9905394066432167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8209584099856591</v>
+        <v>0.9960848848390117</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1806772362040477</v>
+        <v>0.01172548022559595</v>
       </c>
       <c r="H2" t="n">
-        <v>1.414355066225302</v>
+        <v>1.400250275988717</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2172749219616771</v>
+        <v>0.03180743316834873</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4189224597950218</v>
+        <v>0.04136164860583375</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3180986908783495</v>
+        <v>0.03658454088709124</v>
       </c>
       <c r="L2" t="n">
-        <v>0.962037870963413</v>
+        <v>0.02776323925444875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.425061449915242</v>
+        <v>0.1082842565916022</v>
       </c>
       <c r="N2" t="n">
-        <v>1.038144694121292</v>
+        <v>1.002475490914226</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4431571958366365</v>
+        <v>0.1128941415740194</v>
       </c>
       <c r="P2" t="n">
-        <v>85.42208612989479</v>
+        <v>90.89198201616324</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.395994949491</v>
+        <v>140.8658908357595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_4</t>
+          <t>model_22_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9732771624860128</v>
+        <v>0.9982485519235215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7884909450557043</v>
+        <v>0.7905384840781875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.931801656009291</v>
+        <v>0.9977827190559642</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.417469102538541</v>
+        <v>0.9904946734962163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7980092392396076</v>
+        <v>0.9960908565297717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.178695737503385</v>
+        <v>0.01171194135208901</v>
       </c>
       <c r="H3" t="n">
-        <v>1.414362024322152</v>
+        <v>1.400670121450756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2348381783000106</v>
+        <v>0.03150025600198238</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4829059778412959</v>
+        <v>0.04155722161457462</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3588719054732262</v>
+        <v>0.0365287388082785</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9979457509585832</v>
+        <v>0.02790668800683321</v>
       </c>
       <c r="M3" t="n">
-        <v>0.422724186087554</v>
+        <v>0.1082217231062646</v>
       </c>
       <c r="N3" t="n">
-        <v>1.037726358843276</v>
+        <v>1.002472632578558</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4407204298490008</v>
+        <v>0.1128289459087488</v>
       </c>
       <c r="P3" t="n">
-        <v>85.44414141981652</v>
+        <v>90.89429265856356</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.4180502394128</v>
+        <v>140.8682014781598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_5</t>
+          <t>model_22_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9731678358431091</v>
+        <v>0.9982505579273422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7880688347436449</v>
+        <v>0.7904685217590363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9270142478315707</v>
+        <v>0.9978065673997152</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.003752460884291</v>
+        <v>0.9904439473517807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7753331295596766</v>
+        <v>0.996097118653907</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1794268052678848</v>
+        <v>0.0116985271953026</v>
       </c>
       <c r="H4" t="n">
-        <v>1.417184677922533</v>
+        <v>1.401137959801068</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2513234204546817</v>
+        <v>0.03116144962049833</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5469969158608365</v>
+        <v>0.04177899596657899</v>
       </c>
       <c r="K4" t="n">
-        <v>0.399159979338199</v>
+        <v>0.03647022279353866</v>
       </c>
       <c r="L4" t="n">
-        <v>1.032237129890887</v>
+        <v>0.02806055950521231</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4235880136027043</v>
+        <v>0.1081597300075338</v>
       </c>
       <c r="N4" t="n">
-        <v>1.03788070233914</v>
+        <v>1.002469800573164</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4416210322898405</v>
+        <v>0.1127643136354615</v>
       </c>
       <c r="P4" t="n">
-        <v>85.43597584861998</v>
+        <v>90.89658465169089</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.4098846682162</v>
+        <v>140.8704934712871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_2</t>
+          <t>model_22_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9721617130620064</v>
+        <v>0.9982525025853269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7879567497801225</v>
+        <v>0.790390555097733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.942299685457522</v>
+        <v>0.9978328763810991</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.253397009768204</v>
+        <v>0.9903865025027414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.843994707870064</v>
+        <v>0.9961036798905004</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1861547529378884</v>
+        <v>0.01168552325840484</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41793419058971</v>
+        <v>1.401659323224206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1986886478700886</v>
+        <v>0.03078768568635571</v>
       </c>
       <c r="J5" t="n">
-        <v>0.355652711505152</v>
+        <v>0.04203014444855824</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2771706796876203</v>
+        <v>0.03640891174174372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9245073553566138</v>
+        <v>0.02823359623964277</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4314565481457993</v>
+        <v>0.1080995987892871</v>
       </c>
       <c r="N5" t="n">
-        <v>1.039301110971285</v>
+        <v>1.002467055173656</v>
       </c>
       <c r="O5" t="n">
-        <v>0.449824546638547</v>
+        <v>0.1127016225067653</v>
       </c>
       <c r="P5" t="n">
-        <v>85.36235389230171</v>
+        <v>90.89880906328527</v>
       </c>
       <c r="Q5" t="n">
-        <v>135.3362627118979</v>
+        <v>140.8727178828815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_6</t>
+          <t>model_22_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9727491341667004</v>
+        <v>0.9982542999315518</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7873233537229829</v>
+        <v>0.790303581356443</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9225455068736197</v>
+        <v>0.9978618701773235</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.585778373656798</v>
+        <v>0.9903210906387581</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7530966951365179</v>
+        <v>0.9961104175601765</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1822266653059736</v>
+        <v>0.01167350439592251</v>
       </c>
       <c r="H6" t="n">
-        <v>1.422169712940324</v>
+        <v>1.40224091703269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2667113452113714</v>
+        <v>0.03037577938012102</v>
       </c>
       <c r="J6" t="n">
-        <v>0.610622441249314</v>
+        <v>0.04231612466467138</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4386668932303427</v>
+        <v>0.0363459520223962</v>
       </c>
       <c r="L6" t="n">
-        <v>1.064866093691659</v>
+        <v>0.02843773440241313</v>
       </c>
       <c r="M6" t="n">
-        <v>0.426880153328746</v>
+        <v>0.108043992872915</v>
       </c>
       <c r="N6" t="n">
-        <v>1.038471810588188</v>
+        <v>1.002464517743691</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4450533252196885</v>
+        <v>0.1126436493314132</v>
       </c>
       <c r="P6" t="n">
-        <v>85.40500790604136</v>
+        <v>90.90086717353212</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.3789167256376</v>
+        <v>140.8747759931283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_1</t>
+          <t>model_22_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9706762408959108</v>
+        <v>0.9982558621177408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7867483268417121</v>
+        <v>0.7902065316073117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9479631174306939</v>
+        <v>0.9978937650515347</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.686972356253968</v>
+        <v>0.9902466587926695</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8669088136450604</v>
+        <v>0.9961172508006847</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1960881121525402</v>
+        <v>0.01166305804968443</v>
       </c>
       <c r="H7" t="n">
-        <v>1.426014920343137</v>
+        <v>1.402889889152004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1791868539894786</v>
+        <v>0.0299226583151045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2937326743006988</v>
+        <v>0.04264154018005114</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2364597641450887</v>
+        <v>0.03628209924757782</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8852663487462054</v>
+        <v>0.02868489304888547</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4428183737747793</v>
+        <v>0.1079956390308629</v>
       </c>
       <c r="N7" t="n">
-        <v>1.041398248146949</v>
+        <v>1.002462312304366</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4616700687067742</v>
+        <v>0.1125932369661986</v>
       </c>
       <c r="P7" t="n">
-        <v>85.25838233794217</v>
+        <v>90.90265772806819</v>
       </c>
       <c r="Q7" t="n">
-        <v>135.2322911575384</v>
+        <v>140.8765665476644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_7</t>
+          <t>model_22_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9720999545074925</v>
+        <v>0.9982570523325759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7863372822567258</v>
+        <v>0.7900982124172968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9183940159517444</v>
+        <v>0.9979288458734017</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.158636757084128</v>
+        <v>0.9901618210710271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7314498410052386</v>
+        <v>0.9961240715954051</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1865677326762941</v>
+        <v>0.0116550990776009</v>
       </c>
       <c r="H8" t="n">
-        <v>1.428763577375626</v>
+        <v>1.403614220074398</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2810068325835433</v>
+        <v>0.02942427543198681</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6732457967029122</v>
+        <v>0.04301245011125299</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4771263146432277</v>
+        <v>0.0362183627716199</v>
       </c>
       <c r="L8" t="n">
-        <v>1.095786709901875</v>
+        <v>0.02895593902181269</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4319348708732534</v>
+        <v>0.1079587841613683</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039388299518834</v>
+        <v>1.002460632001069</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4503232325547735</v>
+        <v>0.1125548131086095</v>
       </c>
       <c r="P8" t="n">
-        <v>85.35792185588484</v>
+        <v>90.90402301132778</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.3318306754811</v>
+        <v>140.877931830924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_8</t>
+          <t>model_22_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9712851022722463</v>
+        <v>0.9982577170603738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7851799919461482</v>
+        <v>0.7899773314117489</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9145533676246388</v>
+        <v>0.9979673661932434</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.717851844386272</v>
+        <v>0.990064846812305</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7105239467273268</v>
+        <v>0.9961306681111951</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1920166533254354</v>
+        <v>0.01165065403975573</v>
       </c>
       <c r="H9" t="n">
-        <v>1.436502383011292</v>
+        <v>1.404422551915102</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2942319463304599</v>
+        <v>0.02887702861621659</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7343777032966813</v>
+        <v>0.04343642089847648</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5143048248135705</v>
+        <v>0.03615672205564809</v>
       </c>
       <c r="L9" t="n">
-        <v>1.124943177089783</v>
+        <v>0.02926021092859913</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4381970485129211</v>
+        <v>0.1079381954627542</v>
       </c>
       <c r="N9" t="n">
-        <v>1.040538679145064</v>
+        <v>1.002459693561825</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4568520040610565</v>
+        <v>0.112533347906471</v>
       </c>
       <c r="P9" t="n">
-        <v>85.30034634929147</v>
+        <v>90.90478591958939</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.2742551688877</v>
+        <v>140.8786947391856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_0</t>
+          <t>model_22_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9683464035248834</v>
+        <v>0.9982576341986731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7847012271632775</v>
+        <v>0.7898422321031862</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9538368576038909</v>
+        <v>0.9980095935237957</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.139585259156577</v>
+        <v>0.9899538878910733</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8894412212220384</v>
+        <v>0.9961368104932232</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2116677453805141</v>
+        <v>0.01165120813632971</v>
       </c>
       <c r="H10" t="n">
-        <v>1.439703885318857</v>
+        <v>1.405325961613536</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1589608725159538</v>
+        <v>0.02827711739330483</v>
       </c>
       <c r="J10" t="n">
-        <v>0.233893772149777</v>
+        <v>0.04392153253329535</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1964270021929636</v>
+        <v>0.03609932496330009</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8441392336780509</v>
+        <v>0.0295916859641186</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4600736303903041</v>
+        <v>0.1079407621630018</v>
       </c>
       <c r="N10" t="n">
-        <v>1.044687430317812</v>
+        <v>1.00245981054305</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4796599173197272</v>
+        <v>0.1125360238764619</v>
       </c>
       <c r="P10" t="n">
-        <v>85.1054749449693</v>
+        <v>90.90469080331587</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.0793837645655</v>
+        <v>140.8785996229121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_9</t>
+          <t>model_22_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.97035702724012</v>
+        <v>0.998256526461123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7839091534938629</v>
+        <v>0.7896912704364395</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9110123199113325</v>
+        <v>0.9980558037840531</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.259594884748005</v>
+        <v>0.9898263991709231</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6904258342360233</v>
+        <v>0.9961421139558663</v>
       </c>
       <c r="G11" t="n">
-        <v>0.198222695338657</v>
+        <v>0.0116586155824286</v>
       </c>
       <c r="H11" t="n">
-        <v>1.445000485593396</v>
+        <v>1.406335442974186</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3064253977488636</v>
+        <v>0.02762062186352352</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7935996121707609</v>
+        <v>0.04447891233445561</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5500126358986783</v>
+        <v>0.03604976709898957</v>
       </c>
       <c r="L11" t="n">
-        <v>1.152316052983704</v>
+        <v>0.02996468806960303</v>
       </c>
       <c r="M11" t="n">
-        <v>0.445222074181702</v>
+        <v>0.1079750692633656</v>
       </c>
       <c r="N11" t="n">
-        <v>1.041848902719831</v>
+        <v>1.002461374407826</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4641760996163654</v>
+        <v>0.1125717915011137</v>
       </c>
       <c r="P11" t="n">
-        <v>85.23672831276619</v>
+        <v>90.90341967463851</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.2106371323624</v>
+        <v>140.8773284942347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_10</t>
+          <t>model_22_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9693581655165592</v>
+        <v>0.9982540386597497</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7825718450594188</v>
+        <v>0.7895223728817655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9077583637292302</v>
+        <v>0.9981063278221906</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.780598659510793</v>
+        <v>0.9896796540791361</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6712442584342908</v>
+        <v>0.9961461918680596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2049020882834429</v>
+        <v>0.01167525152166622</v>
       </c>
       <c r="H12" t="n">
-        <v>1.453943073252263</v>
+        <v>1.407464861699993</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3176302613475609</v>
+        <v>0.02690284176449579</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8505543596677493</v>
+        <v>0.04512048085898931</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5840920592942493</v>
+        <v>0.03601166131174255</v>
       </c>
       <c r="L12" t="n">
-        <v>1.177878590748086</v>
+        <v>0.03038143578683723</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4526611185903235</v>
+        <v>0.1080520778220679</v>
       </c>
       <c r="N12" t="n">
-        <v>1.043259060447211</v>
+        <v>1.002464886598</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4719318395464067</v>
+        <v>0.1126520784735896</v>
       </c>
       <c r="P12" t="n">
-        <v>85.17044606413829</v>
+        <v>90.90056786409514</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.1443548837345</v>
+        <v>140.8744766836914</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_11</t>
+          <t>model_22_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9683221811639287</v>
+        <v>0.9982497426044515</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7812057679451382</v>
+        <v>0.7893333762105297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9047757019496112</v>
+        <v>0.9981613681996536</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.278356857626921</v>
+        <v>0.9895105207598345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6530406058500957</v>
+        <v>0.9961484655580589</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2118297204197529</v>
+        <v>0.01170397926322689</v>
       </c>
       <c r="H13" t="n">
-        <v>1.463078037205664</v>
+        <v>1.408728683310796</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3279009338862698</v>
+        <v>0.02612089936554305</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9049679625272824</v>
+        <v>0.04585993055909469</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6164340310996435</v>
+        <v>0.03599041496231888</v>
       </c>
       <c r="L13" t="n">
-        <v>1.201664240548652</v>
+        <v>0.03083507940580877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4602496283754642</v>
+        <v>0.1081849308509595</v>
       </c>
       <c r="N13" t="n">
-        <v>1.044721626592101</v>
+        <v>1.002470951617245</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4798434079034816</v>
+        <v>0.1127905873309649</v>
       </c>
       <c r="P13" t="n">
-        <v>85.1039450652395</v>
+        <v>90.89565277406784</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.0778538848357</v>
+        <v>140.8695615936641</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9672755056552711</v>
+        <v>0.9982430990109619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7798406871330501</v>
+        <v>0.7891216655194974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9020484341828094</v>
+        <v>0.9982212402971935</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.751006051651904</v>
+        <v>0.9893150699003821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6358565889877099</v>
+        <v>0.9961482555623249</v>
       </c>
       <c r="G14" t="n">
-        <v>0.218828844365643</v>
+        <v>0.01174840500348317</v>
       </c>
       <c r="H14" t="n">
-        <v>1.472206338881716</v>
+        <v>1.410144393676567</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3372921676995032</v>
+        <v>0.02527031414540835</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9566367158153068</v>
+        <v>0.04671444036239133</v>
       </c>
       <c r="K14" t="n">
-        <v>0.646964441757405</v>
+        <v>0.03599237725389984</v>
       </c>
       <c r="L14" t="n">
-        <v>1.223693863226547</v>
+        <v>0.03133846429323368</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4677914539254037</v>
+        <v>0.1083900595233861</v>
       </c>
       <c r="N14" t="n">
-        <v>1.046199286133735</v>
+        <v>1.002480330808054</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4877063045808131</v>
+        <v>0.1130044487556515</v>
       </c>
       <c r="P14" t="n">
-        <v>85.03893077459681</v>
+        <v>90.88807558398096</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.0128395941931</v>
+        <v>140.8619844035772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_13</t>
+          <t>model_22_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9662384587636007</v>
+        <v>0.9982333767938083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7784993096767823</v>
+        <v>0.7888843640313049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8995596815950457</v>
+        <v>0.998286170167861</v>
       </c>
       <c r="E15" t="n">
-        <v>-8.19734436577529</v>
+        <v>0.9890885846911991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6197133891335328</v>
+        <v>0.9961446299572013</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2257635817054049</v>
+        <v>0.01181341751435569</v>
       </c>
       <c r="H15" t="n">
-        <v>1.481176136108255</v>
+        <v>1.411731229820783</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3458620843536304</v>
+        <v>0.0243478746351138</v>
       </c>
       <c r="J15" t="n">
-        <v>1.005429233663576</v>
+        <v>0.04770463212768152</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6756456590086032</v>
+        <v>0.03602625648693128</v>
       </c>
       <c r="L15" t="n">
-        <v>1.244033834363124</v>
+        <v>0.03189747442126698</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4751458530866127</v>
+        <v>0.1086895464815071</v>
       </c>
       <c r="N15" t="n">
-        <v>1.04766335233374</v>
+        <v>1.002494056291094</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4953737957400199</v>
+        <v>0.1133166854936032</v>
       </c>
       <c r="P15" t="n">
-        <v>84.97653385180317</v>
+        <v>90.87703863201142</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.9504426713994</v>
+        <v>140.8509474516077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_14</t>
+          <t>model_22_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9652263659966064</v>
+        <v>0.9982197338968197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7771987009369787</v>
+        <v>0.788618198179544</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8972921599176794</v>
+        <v>0.998356383855842</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.616749966993128</v>
+        <v>0.988825588209386</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6046134192063775</v>
+        <v>0.9961364802579861</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2325314506985546</v>
+        <v>0.01190464762933804</v>
       </c>
       <c r="H16" t="n">
-        <v>1.489873312740073</v>
+        <v>1.413511082097089</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3536702015132058</v>
+        <v>0.02335036949162096</v>
       </c>
       <c r="J16" t="n">
-        <v>1.051277538941326</v>
+        <v>0.04885445092393312</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7024733958810574</v>
+        <v>0.0361024108251552</v>
       </c>
       <c r="L16" t="n">
-        <v>1.262750943067842</v>
+        <v>0.03251610799217992</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4822151498019889</v>
+        <v>0.1091084214409595</v>
       </c>
       <c r="N16" t="n">
-        <v>1.049092189181262</v>
+        <v>1.002513316851549</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5027440470520312</v>
+        <v>0.1137533928272703</v>
       </c>
       <c r="P16" t="n">
-        <v>84.91745958256278</v>
+        <v>90.86165279604998</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.891368402159</v>
+        <v>140.8355616156462</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_15</t>
+          <t>model_22_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9642503144899047</v>
+        <v>0.9982010511926969</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7759511657177547</v>
+        <v>0.7883192835746105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.895229462934476</v>
+        <v>0.9984319461724999</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.009065918648991</v>
+        <v>0.9885193569046804</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5905447214145454</v>
+        <v>0.9961222820554014</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2390583116181725</v>
+        <v>0.01202957895783383</v>
       </c>
       <c r="H17" t="n">
-        <v>1.498215586495396</v>
+        <v>1.415509925436655</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3607730133056211</v>
+        <v>0.02227687795901769</v>
       </c>
       <c r="J17" t="n">
-        <v>1.094164475750515</v>
+        <v>0.05019329206630808</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7274688974825927</v>
+        <v>0.03623508501266288</v>
       </c>
       <c r="L17" t="n">
-        <v>1.279927721957921</v>
+        <v>0.03320682635871777</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4889358972484762</v>
+        <v>0.1096794372607456</v>
       </c>
       <c r="N17" t="n">
-        <v>1.050470144249546</v>
+        <v>1.00253969243384</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5097509106311806</v>
+        <v>0.1143487179726703</v>
       </c>
       <c r="P17" t="n">
-        <v>84.86209555028664</v>
+        <v>90.8407734979137</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.8360043698829</v>
+        <v>140.8146823175099</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_16</t>
+          <t>model_22_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9633182081139895</v>
+        <v>0.9981759785162605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7747650529892178</v>
+        <v>0.7879833346770005</v>
       </c>
       <c r="D18" t="n">
-        <v>0.893355272685614</v>
+        <v>0.9985129757488891</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.374486435488723</v>
+        <v>0.9881620392957796</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5774866203601356</v>
+        <v>0.9961002888877825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2452913112458734</v>
+        <v>0.0121972400606127</v>
       </c>
       <c r="H18" t="n">
-        <v>1.506147127772668</v>
+        <v>1.417756417261875</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3672267099509586</v>
+        <v>0.02112571468092326</v>
       </c>
       <c r="J18" t="n">
-        <v>1.134111275130811</v>
+        <v>0.05175548217666058</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7506688972727658</v>
+        <v>0.03644059874773944</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29565094319174</v>
+        <v>0.03395922121952562</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4952689282055492</v>
+        <v>0.1104411158066266</v>
       </c>
       <c r="N18" t="n">
-        <v>1.051786059133191</v>
+        <v>1.002575089153515</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5163535518272775</v>
+        <v>0.1151428227511414</v>
       </c>
       <c r="P18" t="n">
-        <v>84.81061749855004</v>
+        <v>90.81309115475099</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.7845263181463</v>
+        <v>140.7869999743472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_17</t>
+          <t>model_22_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9624351786104605</v>
+        <v>0.9981428377726537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7736455190241369</v>
+        <v>0.7876053052939884</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8916546271467454</v>
+        <v>0.998599413891602</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.713690632756457</v>
+        <v>0.9877440604965445</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5654030379129102</v>
+        <v>0.996068216399505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2511961336019486</v>
+        <v>0.01241885236571071</v>
       </c>
       <c r="H19" t="n">
-        <v>1.513633456552145</v>
+        <v>1.420284301486742</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3730828125615494</v>
+        <v>0.01989771349725839</v>
       </c>
       <c r="J19" t="n">
-        <v>1.171192176155181</v>
+        <v>0.05358288259084825</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7721374943583653</v>
+        <v>0.03674029804405332</v>
       </c>
       <c r="L19" t="n">
-        <v>1.310014185802159</v>
+        <v>0.03479723518382152</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5011947062788559</v>
+        <v>0.1114399047276635</v>
       </c>
       <c r="N19" t="n">
-        <v>1.053032689020526</v>
+        <v>1.002621876085665</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5225316025412167</v>
+        <v>0.1161841321843249</v>
       </c>
       <c r="P19" t="n">
-        <v>84.76304247243706</v>
+        <v>90.77707921772567</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.7369512920333</v>
+        <v>140.7509880373219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_18</t>
+          <t>model_22_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9616041240013435</v>
+        <v>0.9980995135082368</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7725953983359737</v>
+        <v>0.7871795033142615</v>
       </c>
       <c r="D20" t="n">
-        <v>0.890112722823593</v>
+        <v>0.9986909747511341</v>
       </c>
       <c r="E20" t="n">
-        <v>-10.02752265571135</v>
+        <v>0.9872542474651775</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5542537312471907</v>
+        <v>0.9960232334214276</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2567533995997679</v>
+        <v>0.0127085619213563</v>
       </c>
       <c r="H20" t="n">
-        <v>1.520655618429253</v>
+        <v>1.423131641285815</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3783922963579791</v>
+        <v>0.01859693538757469</v>
       </c>
       <c r="J20" t="n">
-        <v>1.205499458539082</v>
+        <v>0.05572434177019614</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7919461871558466</v>
+        <v>0.03716063857888542</v>
       </c>
       <c r="L20" t="n">
-        <v>1.323111410277542</v>
+        <v>0.03607755942123551</v>
       </c>
       <c r="M20" t="n">
-        <v>0.506708397009333</v>
+        <v>0.1127322576787864</v>
       </c>
       <c r="N20" t="n">
-        <v>1.054205942586339</v>
+        <v>1.002683039753077</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5282800225010035</v>
+        <v>0.1175315032761166</v>
       </c>
       <c r="P20" t="n">
-        <v>84.71927837873244</v>
+        <v>90.73095869126034</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.6931871983287</v>
+        <v>140.7048675108566</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_19</t>
+          <t>model_22_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9608264608924275</v>
+        <v>0.9980434054157126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7716154919661824</v>
+        <v>0.7866993243322999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8887152837410012</v>
+        <v>0.9987872891412325</v>
       </c>
       <c r="E21" t="n">
-        <v>-10.31701132106793</v>
+        <v>0.9866788041206949</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5439937386779105</v>
+        <v>0.9959618319485406</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2619536363898992</v>
+        <v>0.01308375699441994</v>
       </c>
       <c r="H21" t="n">
-        <v>1.527208256836102</v>
+        <v>1.426342600349212</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3832043200705462</v>
+        <v>0.01722862527200882</v>
       </c>
       <c r="J21" t="n">
-        <v>1.237145589790493</v>
+        <v>0.05824017608517534</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8101748579604804</v>
+        <v>0.03773440067859207</v>
       </c>
       <c r="L21" t="n">
-        <v>1.335037128236112</v>
+        <v>0.03783470330300115</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5118140642752006</v>
+        <v>0.1143842515140084</v>
       </c>
       <c r="N21" t="n">
-        <v>1.055303819916573</v>
+        <v>1.002762251177818</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5336030485925672</v>
+        <v>0.1192538259090027</v>
       </c>
       <c r="P21" t="n">
-        <v>84.67917550244853</v>
+        <v>90.67276748441401</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.6530843220448</v>
+        <v>140.6466763040102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_20</t>
+          <t>model_22_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.960102350911287</v>
+        <v>0.9979712962526472</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7707052168478333</v>
+        <v>0.7861570620053062</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8874506990702691</v>
+        <v>0.9988876524785143</v>
       </c>
       <c r="E22" t="n">
-        <v>-10.58333785615109</v>
+        <v>0.9860013953204259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5345747817868038</v>
+        <v>0.9958796550060849</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2667957631680056</v>
+        <v>0.01356595129986998</v>
       </c>
       <c r="H22" t="n">
-        <v>1.533295270743933</v>
+        <v>1.429968711026707</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3875588651079049</v>
+        <v>0.01580279295874452</v>
       </c>
       <c r="J22" t="n">
-        <v>1.266259698540119</v>
+        <v>0.06120180266635945</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8269092818240118</v>
+        <v>0.03850229781255199</v>
       </c>
       <c r="L22" t="n">
-        <v>1.345870350920598</v>
+        <v>0.03977741258977482</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5165227615197665</v>
+        <v>0.1164729638150845</v>
       </c>
       <c r="N22" t="n">
-        <v>1.056326092831124</v>
+        <v>1.002864052349204</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5385122048271814</v>
+        <v>0.1214314590169661</v>
       </c>
       <c r="P22" t="n">
-        <v>84.6425436904933</v>
+        <v>90.60038441266255</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.6164525100895</v>
+        <v>140.5742932322588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_21</t>
+          <t>model_22_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9594306882683866</v>
+        <v>0.9978792060000488</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7698628654852997</v>
+        <v>0.7855438886910122</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8863069630246913</v>
+        <v>0.9989910285843787</v>
       </c>
       <c r="E23" t="n">
-        <v>-10.82782446286923</v>
+        <v>0.98520246187005</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5259448871381414</v>
+        <v>0.9957713391292997</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2712871743538027</v>
+        <v>0.01418175924303226</v>
       </c>
       <c r="H23" t="n">
-        <v>1.538928078183867</v>
+        <v>1.434069003802795</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3914972729002725</v>
+        <v>0.01433415913136426</v>
       </c>
       <c r="J23" t="n">
-        <v>1.292986324385329</v>
+        <v>0.06469473417579788</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8422417986428008</v>
+        <v>0.03951444853099174</v>
       </c>
       <c r="L23" t="n">
-        <v>1.355707207305949</v>
+        <v>0.04192049338884844</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5208523536990139</v>
+        <v>0.1190871917673444</v>
       </c>
       <c r="N23" t="n">
-        <v>1.057274322444631</v>
+        <v>1.002994062117578</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5430261167089907</v>
+        <v>0.1241569800653516</v>
       </c>
       <c r="P23" t="n">
-        <v>84.60915467041755</v>
+        <v>90.51159740095927</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.5830634900138</v>
+        <v>140.4855062205555</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_22</t>
+          <t>model_22_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9588100516242081</v>
+        <v>0.9977622398123256</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7690859175464227</v>
+        <v>0.7848495301944577</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8852723289464874</v>
+        <v>0.9990959460374761</v>
       </c>
       <c r="E24" t="n">
-        <v>-11.05172362993369</v>
+        <v>0.9842584999942063</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5180540844725596</v>
+        <v>0.9956302680208102</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2754373744511935</v>
+        <v>0.01496391267891682</v>
       </c>
       <c r="H24" t="n">
-        <v>1.544123532628654</v>
+        <v>1.438712182266482</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3950599925781224</v>
+        <v>0.01284362783873241</v>
       </c>
       <c r="J24" t="n">
-        <v>1.317462386062134</v>
+        <v>0.06882172895651696</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8562611893201284</v>
+        <v>0.04083267839762469</v>
       </c>
       <c r="L24" t="n">
-        <v>1.364623782499269</v>
+        <v>0.0442845528492808</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5248212785808075</v>
+        <v>0.1223270725510785</v>
       </c>
       <c r="N24" t="n">
-        <v>1.058150515354059</v>
+        <v>1.003159190853187</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5471640069398094</v>
+        <v>0.127534789281527</v>
       </c>
       <c r="P24" t="n">
-        <v>84.57878998439197</v>
+        <v>90.40422759584759</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.5526988039882</v>
+        <v>140.3781364154438</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_23</t>
+          <t>model_22_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9582383227913949</v>
+        <v>0.9976143724779122</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7683713700838395</v>
+        <v>0.7840620986494784</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8843372585723085</v>
+        <v>0.9992003722908758</v>
       </c>
       <c r="E25" t="n">
-        <v>-11.25645474882958</v>
+        <v>0.9831413631441407</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5108494635125875</v>
+        <v>0.9954483115171698</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2792605277887847</v>
+        <v>0.01595270222500572</v>
       </c>
       <c r="H25" t="n">
-        <v>1.548901714801137</v>
+        <v>1.443977740633547</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3982798687569989</v>
+        <v>0.0113600748752412</v>
       </c>
       <c r="J25" t="n">
-        <v>1.339843047674039</v>
+        <v>0.07370584352464965</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8690614582155189</v>
+        <v>0.04253295919994542</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37271255673795</v>
+        <v>0.04689563438036633</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5284510647058862</v>
+        <v>0.1263040071613158</v>
       </c>
       <c r="N25" t="n">
-        <v>1.05895766194156</v>
+        <v>1.003367944737065</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5509483205749258</v>
+        <v>0.1316810302315117</v>
       </c>
       <c r="P25" t="n">
-        <v>84.55122028303009</v>
+        <v>90.27625409121063</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.5251291026263</v>
+        <v>140.2501629108069</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_24</t>
+          <t>model_22_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9577129837308913</v>
+        <v>0.9974281929673161</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7677158348500024</v>
+        <v>0.783167637742926</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8834927425714438</v>
+        <v>0.9993016134133685</v>
       </c>
       <c r="E26" t="n">
-        <v>-11.44331693644483</v>
+        <v>0.9818174118001498</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5042823267540802</v>
+        <v>0.9952155524928897</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2827734725053356</v>
+        <v>0.01719768546963954</v>
       </c>
       <c r="H26" t="n">
-        <v>1.553285281928267</v>
+        <v>1.449959004834277</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4011879246947688</v>
+        <v>0.009921772126539099</v>
       </c>
       <c r="J26" t="n">
-        <v>1.360270325225353</v>
+        <v>0.0794941496272583</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8807291249600611</v>
+        <v>0.0447079608768987</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38002200033029</v>
+        <v>0.04976690532403646</v>
       </c>
       <c r="M26" t="n">
-        <v>0.531764489699468</v>
+        <v>0.1311399461248919</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0596993170858</v>
+        <v>1.003630786399083</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5544028049302197</v>
+        <v>0.1367228451285409</v>
       </c>
       <c r="P26" t="n">
-        <v>84.5262183047633</v>
+        <v>90.12596093987227</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.5001271243595</v>
+        <v>140.0998697594685</v>
       </c>
     </row>
   </sheetData>
